--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_9.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_1</t>
+          <t>model_11_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4258852959270064</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05610396896634584</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2102282152192381</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01846331537600421</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6353757977485657</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9126007556915283</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H2" t="n">
-        <v>1.583432197570801</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I2" t="n">
-        <v>1.228286266326904</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_0</t>
+          <t>model_11_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4320185314350328</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1161953414143501</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.173515462376661</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06110512291229808</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6285881400108337</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8545017242431641</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H3" t="n">
-        <v>1.535398244857788</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I3" t="n">
-        <v>1.174924492835999</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_7</t>
+          <t>model_11_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4459873559564762</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02355164746532656</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3528422924294357</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.08428706666755081</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.613128662109375</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9896152019500732</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H4" t="n">
-        <v>1.770025014877319</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I4" t="n">
-        <v>1.356867074966431</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_6</t>
+          <t>model_11_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4473407550972281</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0088209704469977</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3173400969614866</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06079123265083619</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F5" t="n">
-        <v>0.611630916595459</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9753730297088623</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H5" t="n">
-        <v>1.723574757575989</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I5" t="n">
-        <v>1.327464580535889</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_8</t>
+          <t>model_11_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4506324565206535</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01368771465704</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3732678690862765</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.09030179264985794</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6079879403114319</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9800784587860107</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H6" t="n">
-        <v>1.796749234199524</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I6" t="n">
-        <v>1.364393949508667</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_2</t>
+          <t>model_11_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4536060792151578</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1122933769430711</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2048531534822702</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04409130402954242</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6046971082687378</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8582742810249329</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H7" t="n">
-        <v>1.576399683952332</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I7" t="n">
-        <v>1.196215510368347</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_5</t>
+          <t>model_11_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4544797754975163</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02930630000115175</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2640378400553454</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01897308824629018</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6037301421165466</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9385099411010742</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H8" t="n">
-        <v>1.653835415840149</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I8" t="n">
-        <v>1.275133848190308</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_3</t>
+          <t>model_11_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4556880033686069</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09362034374727513</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2223802512025963</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02782960181839256</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6023930311203003</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8763282299041748</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H9" t="n">
-        <v>1.599331617355347</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I9" t="n">
-        <v>1.216565370559692</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_4</t>
+          <t>model_11_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.458288380228275</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06664140143102071</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2317806324838165</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01216740278169903</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5995150804519653</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9024126529693604</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H10" t="n">
-        <v>1.611630916595459</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I10" t="n">
-        <v>1.236164927482605</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_9</t>
+          <t>model_11_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4667492319850708</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02191793082668803</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3865447538722142</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08227065168374925</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5901514291763306</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9456532597541809</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H11" t="n">
-        <v>1.814120531082153</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35434365272522</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_10</t>
+          <t>model_11_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4705250674321381</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0102110954888941</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3916527313288971</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.08957276290783311</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5859727263450623</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9569720029830933</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H12" t="n">
-        <v>1.82080352306366</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I12" t="n">
-        <v>1.363481521606445</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_24</t>
+          <t>model_11_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4912828896106807</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3545474720275443</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.419531576859564</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2524871676537299</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5629999041557312</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>1.30963671207428</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H13" t="n">
-        <v>1.857279419898987</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I13" t="n">
-        <v>1.567351222038269</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_11</t>
+          <t>model_11_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4959559315149649</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00187897500280676</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3718936468475604</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08325275216258432</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5578282475471497</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9650278091430664</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H14" t="n">
-        <v>1.794951200485229</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I14" t="n">
-        <v>1.355572700500488</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_12</t>
+          <t>model_11_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4979530203709889</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01676276240675967</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3766114874977458</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09320493021115728</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5556181073188782</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9830514192581177</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H15" t="n">
-        <v>1.801123976707458</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I15" t="n">
-        <v>1.368026733398438</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_18</t>
+          <t>model_11_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4981469285450351</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1779744328509936</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3992378899426938</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1702692188573887</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5554034113883972</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>1.138918161392212</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H16" t="n">
-        <v>1.830727815628052</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I16" t="n">
-        <v>1.464464426040649</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_19</t>
+          <t>model_11_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4992920991638234</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2060395202544023</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3914609083602354</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1779311565255433</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5541361570358276</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>1.16605269908905</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H17" t="n">
-        <v>1.820552587509155</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I17" t="n">
-        <v>1.474052667617798</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_13</t>
+          <t>model_11_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5002035404531857</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.03857180744662769</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3731878098200929</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.100441334505295</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5531274080276489</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>1.004137516021729</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H18" t="n">
-        <v>1.796644568443298</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I18" t="n">
-        <v>1.377082347869873</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_20</t>
+          <t>model_11_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5007436385828608</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2294899171607692</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3855563106159017</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1846178895823432</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5525296926498413</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>1.188725590705872</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H19" t="n">
-        <v>1.812827229499817</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I19" t="n">
-        <v>1.482420086860657</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_22</t>
+          <t>model_11_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5014449496608384</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2728920219186566</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.388282038987865</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2037122137705352</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5517535209655762</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>1.230688571929932</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H20" t="n">
-        <v>1.816393375396729</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I20" t="n">
-        <v>1.506314635276794</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_23</t>
+          <t>model_11_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.501521135600143</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2940876508712582</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.390505174334244</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2134652595291355</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.551669180393219</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>1.251181483268738</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H21" t="n">
-        <v>1.819302201271057</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I21" t="n">
-        <v>1.518519639968872</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_21</t>
+          <t>model_11_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5017686248028997</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2515138254049589</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3840162033425554</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1928794845880175</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5513952970504761</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>1.21001935005188</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H22" t="n">
-        <v>1.81081211566925</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I22" t="n">
-        <v>1.492758750915527</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_14</t>
+          <t>model_11_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5030421132932659</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.05696080678047233</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3703409932192687</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1065544018562199</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F23" t="n">
-        <v>0.549985945224762</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>1.02191686630249</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H23" t="n">
-        <v>1.792919874191284</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I23" t="n">
-        <v>1.384732246398926</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_17</t>
+          <t>model_11_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5051084878151786</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1332568664542304</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3729425955835013</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1390496201601599</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5476990342140198</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>1.095683217048645</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H24" t="n">
-        <v>1.796323776245117</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I24" t="n">
-        <v>1.42539644241333</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_15</t>
+          <t>model_11_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5068851449161687</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0690236224817915</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.365491849647259</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1091021826799168</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F25" t="n">
-        <v>0.545732855796814</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>1.033579587936401</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H25" t="n">
-        <v>1.786575317382812</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I25" t="n">
-        <v>1.387920498847961</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_11_9_16</t>
+          <t>model_11_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5069431685280921</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.09953227937740472</v>
+        <v>-0.7266016666444675</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3646740501030328</v>
+        <v>0.2087795153652025</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1211952864991444</v>
+        <v>-0.08449119809865491</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5456686615943909</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>1.063076734542847</v>
+        <v>0.9218135476112366</v>
       </c>
       <c r="H26" t="n">
-        <v>1.785505175590515</v>
+        <v>0.9635273814201355</v>
       </c>
       <c r="I26" t="n">
-        <v>1.403053879737854</v>
+        <v>0.9414435029029846</v>
       </c>
     </row>
   </sheetData>
